--- a/public/ARQUIVO EXEMPLO DE IMPORTAÇÃO.xlsx
+++ b/public/ARQUIVO EXEMPLO DE IMPORTAÇÃO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APPS PARA CODAR\precifac-frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB7DFE-705C-4B99-8EB9-6EB3F9283ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C0A86-ACC7-491B-8D87-C9580EAE1802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{2C16B1E5-C8E9-4244-A7EB-7662335151EF}"/>
+    <workbookView xWindow="3555" yWindow="2430" windowWidth="21600" windowHeight="11295" xr2:uid="{2C16B1E5-C8E9-4244-A7EB-7662335151EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>Código de Barras</t>
   </si>
   <si>
@@ -62,19 +59,25 @@
     <t>Ativo*</t>
   </si>
   <si>
-    <t>Total Embalagem</t>
-  </si>
-  <si>
     <t>Estoque Mínimo</t>
   </si>
   <si>
     <t>Custo Total*</t>
+  </si>
+  <si>
+    <t>Total Embalagem*</t>
+  </si>
+  <si>
+    <t>Código*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,9 +207,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -231,13 +231,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,53 +594,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26" style="12" customWidth="1"/>
-    <col min="4" max="4" width="26" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26" style="15" customWidth="1"/>
-    <col min="7" max="7" width="26" style="16" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26" style="14" customWidth="1"/>
+    <col min="7" max="7" width="26" style="15" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="10" customWidth="1"/>
     <col min="12" max="49" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
